--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 1.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1055,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1935,12 +1935,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2145,12 +2145,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2805,12 +2805,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3385,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3469,12 +3469,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3925,12 +3925,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4303,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4803,12 +4803,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5353,12 +5353,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5689,12 +5689,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5815,12 +5815,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5857,12 +5857,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5983,12 +5983,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6025,12 +6025,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6739,12 +6739,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7495,12 +7495,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7663,12 +7663,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7915,12 +7915,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9293,12 +9293,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9335,12 +9335,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9419,12 +9419,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9461,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9839,12 +9839,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10133,12 +10133,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10295,12 +10295,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10505,12 +10505,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10547,12 +10547,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10589,12 +10589,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11261,12 +11261,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11471,12 +11471,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
